--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="144">
   <si>
     <t>土地坐落</t>
   </si>
@@ -205,6 +205,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>★太平洋電線電纜股份有 限公司</t>
   </si>
   <si>
@@ -239,6 +248,9 @@
   </si>
   <si>
     <t>貝志雄</t>
+  </si>
+  <si>
+    <t>2012-03-30</t>
   </si>
   <si>
     <t>名稱</t>
@@ -871,25 +883,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -897,25 +909,25 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1579,13 +1591,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1604,13 +1616,22 @@
       <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>53</v>
@@ -1627,13 +1648,22 @@
       <c r="G2" s="2">
         <v>2470</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -1650,16 +1680,25 @@
       <c r="G3" s="2">
         <v>142530</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2">
         <v>8500</v>
@@ -1673,13 +1712,22 @@
       <c r="G4" s="2">
         <v>85000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
@@ -1696,13 +1744,22 @@
       <c r="G5" s="2">
         <v>23880</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -1719,13 +1776,22 @@
       <c r="G6" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
@@ -1742,13 +1808,22 @@
       <c r="G7" s="2">
         <v>10770</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
@@ -1765,13 +1840,22 @@
       <c r="G8" s="2">
         <v>4870</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
@@ -1788,13 +1872,22 @@
       <c r="G9" s="2">
         <v>131320</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1811,13 +1904,22 @@
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1834,13 +1936,22 @@
       <c r="G11" s="2">
         <v>27580</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1857,13 +1968,22 @@
       <c r="G12" s="2">
         <v>590000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1879,6 +1999,15 @@
       </c>
       <c r="G13" s="2">
         <v>4310</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
@@ -1896,22 +2025,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -1922,13 +2051,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -1948,13 +2077,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -1974,13 +2103,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2000,13 +2129,13 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2026,13 +2155,13 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2050,13 +2179,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2076,13 +2205,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2102,13 +2231,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2128,13 +2257,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2143,7 +2272,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2154,13 +2283,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2180,13 +2309,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2206,13 +2335,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2232,13 +2361,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2258,13 +2387,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2284,13 +2413,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2310,13 +2439,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2336,13 +2465,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2370,19 +2499,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -2393,7 +2522,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -2416,7 +2545,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -2439,7 +2568,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -2462,7 +2591,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -2485,7 +2614,7 @@
         <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -2508,10 +2637,10 @@
         <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2531,7 +2660,7 @@
         <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
@@ -2554,7 +2683,7 @@
         <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>50</v>
@@ -2577,7 +2706,7 @@
         <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
@@ -2600,7 +2729,7 @@
         <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
@@ -2623,7 +2752,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>50</v>
@@ -2652,13 +2781,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2666,10 +2795,10 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -2680,10 +2809,10 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -2694,10 +2823,10 @@
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -2708,10 +2837,10 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -2722,10 +2851,10 @@
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2736,10 +2865,10 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2750,10 +2879,10 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -2764,10 +2893,10 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -2778,10 +2907,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>50</v>
@@ -2792,13 +2921,13 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2806,10 +2935,10 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>50</v>
@@ -2820,10 +2949,10 @@
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -2834,10 +2963,10 @@
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>53</v>
@@ -2848,13 +2977,13 @@
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2862,10 +2991,10 @@
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>52</v>
@@ -2876,10 +3005,10 @@
         <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="146">
   <si>
     <t>土地坐落</t>
   </si>
@@ -205,6 +205,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -214,7 +217,7 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>★太平洋電線電纜股份有 限公司</t>
+    <t>★太平洋電線電纜股份有限公司</t>
   </si>
   <si>
     <t>★華泰電子股份有限公司</t>
@@ -229,7 +232,7 @@
     <t>★友達光電股份有限公司</t>
   </si>
   <si>
-    <t>★春雨開發股份有限公司 (原正華）</t>
+    <t>★春雨開發股份有限公司(原正華）</t>
   </si>
   <si>
     <t>★茂德科技股份有限公司</t>
@@ -241,13 +244,16 @@
     <t>★中華映管股份有限公司</t>
   </si>
   <si>
-    <t>★台灣上地開發股份有限 公司</t>
+    <t>★台灣上地開發股份有限公司</t>
   </si>
   <si>
     <t>★立端科技股份有限公司</t>
   </si>
   <si>
     <t>貝志雄</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-03-30</t>
@@ -883,25 +889,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -909,25 +915,25 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1591,13 +1597,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1625,13 +1631,16 @@
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>53</v>
@@ -1649,21 +1658,24 @@
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2">
+        <v>77</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -1681,24 +1693,27 @@
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="2">
+        <v>77</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2">
         <v>8500</v>
@@ -1713,21 +1728,24 @@
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="2">
+        <v>77</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
@@ -1745,21 +1763,24 @@
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="2">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -1777,21 +1798,24 @@
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="2">
+        <v>77</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
@@ -1809,21 +1833,24 @@
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="2">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
@@ -1841,21 +1868,24 @@
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2">
+        <v>77</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
@@ -1873,21 +1903,24 @@
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="2">
+        <v>77</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1905,21 +1938,24 @@
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="2">
+        <v>77</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1937,21 +1973,24 @@
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="2">
+        <v>77</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1969,21 +2008,24 @@
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -2001,12 +2043,15 @@
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="2">
+        <v>77</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2">
         <v>1366</v>
       </c>
     </row>
@@ -2025,22 +2070,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -2051,13 +2096,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2077,13 +2122,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2103,13 +2148,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2129,13 +2174,13 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2155,13 +2200,13 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2179,13 +2224,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2205,13 +2250,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2231,13 +2276,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2257,13 +2302,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2272,7 +2317,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2283,13 +2328,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2309,13 +2354,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2335,13 +2380,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2361,13 +2406,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2387,13 +2432,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2413,13 +2458,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2439,13 +2484,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2465,13 +2510,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2499,19 +2544,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -2522,7 +2567,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -2545,7 +2590,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -2568,7 +2613,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -2591,7 +2636,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -2614,7 +2659,7 @@
         <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -2637,10 +2682,10 @@
         <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2660,7 +2705,7 @@
         <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
@@ -2683,7 +2728,7 @@
         <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>50</v>
@@ -2706,7 +2751,7 @@
         <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
@@ -2729,7 +2774,7 @@
         <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
@@ -2752,7 +2797,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>50</v>
@@ -2781,13 +2826,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2795,10 +2840,10 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -2809,10 +2854,10 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -2823,10 +2868,10 @@
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -2837,10 +2882,10 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -2851,10 +2896,10 @@
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2865,10 +2910,10 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2879,10 +2924,10 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -2893,10 +2938,10 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -2907,10 +2952,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>50</v>
@@ -2921,13 +2966,13 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2935,10 +2980,10 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>50</v>
@@ -2949,10 +2994,10 @@
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -2963,10 +3008,10 @@
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>53</v>
@@ -2977,13 +3022,13 @@
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2991,10 +3036,10 @@
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>52</v>
@@ -3005,10 +3050,10 @@
         <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="151">
   <si>
     <t>土地坐落</t>
   </si>
@@ -208,6 +208,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -217,37 +220,43 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>★太平洋電線電纜股份有限公司</t>
-  </si>
-  <si>
-    <t>★華泰電子股份有限公司</t>
-  </si>
-  <si>
-    <t>★台灣光罩股份有限公司</t>
-  </si>
-  <si>
-    <t>★大同股份有限公司</t>
-  </si>
-  <si>
-    <t>★友達光電股份有限公司</t>
-  </si>
-  <si>
-    <t>★春雨開發股份有限公司(原正華）</t>
-  </si>
-  <si>
-    <t>★茂德科技股份有限公司</t>
-  </si>
-  <si>
-    <t>★金橋科技股份有限公司</t>
-  </si>
-  <si>
-    <t>★中華映管股份有限公司</t>
-  </si>
-  <si>
-    <t>★台灣上地開發股份有限公司</t>
-  </si>
-  <si>
-    <t>★立端科技股份有限公司</t>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>太平洋電線電纜股份有限公司</t>
+  </si>
+  <si>
+    <t>華泰電子股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣光罩股份有限公司</t>
+  </si>
+  <si>
+    <t>大同股份有限公司</t>
+  </si>
+  <si>
+    <t>友達光電股份有限公司</t>
+  </si>
+  <si>
+    <t>春雨開發股份有限公司(原正華）</t>
+  </si>
+  <si>
+    <t>茂德科技股份有限公司</t>
+  </si>
+  <si>
+    <t>金橋科技股份有限公司</t>
+  </si>
+  <si>
+    <t>中華映管股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣上地開發股份有限公司</t>
+  </si>
+  <si>
+    <t>立端科技股份有限公司</t>
   </si>
   <si>
     <t>貝志雄</t>
@@ -256,7 +265,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-03-30</t>
+  </si>
+  <si>
+    <t>tmpb8fa1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -889,25 +904,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -915,25 +930,25 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1597,13 +1612,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1634,13 +1649,22 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>53</v>
@@ -1658,24 +1682,33 @@
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="2">
+        <v>81</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -1693,27 +1726,36 @@
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="2">
+        <v>81</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2">
         <v>8500</v>
@@ -1728,24 +1770,33 @@
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="2">
+        <v>81</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
@@ -1763,24 +1814,33 @@
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="2">
+        <v>81</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -1798,24 +1858,33 @@
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="2">
         <v>76</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>50</v>
@@ -1833,24 +1902,33 @@
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="2">
         <v>77</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
@@ -1868,24 +1946,33 @@
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="2">
+        <v>81</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
@@ -1903,24 +1990,33 @@
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="2">
+        <v>81</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1938,24 +2034,33 @@
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="2">
+        <v>81</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1973,24 +2078,33 @@
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2">
+        <v>81</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -2008,24 +2122,33 @@
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="2">
+        <v>81</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -2043,16 +2166,25 @@
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="2">
+        <v>81</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="2">
         <v>1366</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2070,22 +2202,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -2096,13 +2228,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2122,13 +2254,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2148,13 +2280,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2174,13 +2306,13 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2200,13 +2332,13 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2224,13 +2356,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2250,13 +2382,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2276,13 +2408,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2302,13 +2434,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2317,7 +2449,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2328,13 +2460,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2354,13 +2486,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2380,13 +2512,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2406,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2432,13 +2564,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2458,13 +2590,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2484,13 +2616,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2510,13 +2642,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
@@ -2544,19 +2676,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -2567,7 +2699,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -2590,7 +2722,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -2613,7 +2745,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>50</v>
@@ -2636,7 +2768,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -2659,7 +2791,7 @@
         <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>50</v>
@@ -2682,10 +2814,10 @@
         <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2705,7 +2837,7 @@
         <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>50</v>
@@ -2728,7 +2860,7 @@
         <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>50</v>
@@ -2751,7 +2883,7 @@
         <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
@@ -2774,7 +2906,7 @@
         <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>50</v>
@@ -2797,7 +2929,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>50</v>
@@ -2826,13 +2958,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2840,10 +2972,10 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -2854,10 +2986,10 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -2868,10 +3000,10 @@
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -2882,10 +3014,10 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -2896,10 +3028,10 @@
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -2910,10 +3042,10 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -2924,10 +3056,10 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -2938,10 +3070,10 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -2952,10 +3084,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>50</v>
@@ -2966,13 +3098,13 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2980,10 +3112,10 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>50</v>
@@ -2994,10 +3126,10 @@
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>50</v>
@@ -3008,10 +3140,10 @@
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>53</v>
@@ -3022,13 +3154,13 @@
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3036,10 +3168,10 @@
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>52</v>
@@ -3050,10 +3182,10 @@
         <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -23,9 +23,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="151">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市樹林區山佳段05670000地號</t>
+  </si>
+  <si>
+    <t>10000分之162</t>
+  </si>
+  <si>
+    <t>洪佳君</t>
+  </si>
+  <si>
+    <t>97年04月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-30</t>
+  </si>
+  <si>
+    <t>黃志雄</t>
+  </si>
+  <si>
+    <t>tmpb8fa1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -46,25 +118,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市樹林區山佳段0567-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 162</t>
-  </si>
-  <si>
-    <t>洪佳君</t>
-  </si>
-  <si>
-    <t>97年04月 09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市樹林區山佳段01069-000 建號</t>
+    <t>新北市樹林區山佳段01069000建號</t>
   </si>
   <si>
     <t>新北市樹林區中山路</t>
@@ -73,7 +127,7 @@
     <t>全部</t>
   </si>
   <si>
-    <t>100 年 01 月14曰</t>
+    <t>100年01月14曰</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -91,13 +145,13 @@
     <t>申華</t>
   </si>
   <si>
-    <t>97年06月 26日</t>
-  </si>
-  <si>
-    <t>99年09月 17日</t>
-  </si>
-  <si>
-    <t>389，100</t>
+    <t>97年06月26日</t>
+  </si>
+  <si>
+    <t>99年09月17日</t>
+  </si>
+  <si>
+    <t>389100</t>
   </si>
   <si>
     <t>型式</t>
@@ -109,10 +163,10 @@
     <t>國籍標示及編號</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣總額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -124,40 +178,34 @@
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>★中華郵政股份有限公司 樹林鎮前街郵局(第8 5支 局）</t>
-  </si>
-  <si>
-    <t>★中華郵政股份有限公司 樹林大同郵局(第90支局）</t>
-  </si>
-  <si>
-    <t>★中華郵政股份有限公司 樹林大同郵局（第9 0支 局）</t>
-  </si>
-  <si>
-    <t>★臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>★中國信託商業銀行板橋 分行</t>
-  </si>
-  <si>
-    <t>★台新國際商業銀行營業 部</t>
-  </si>
-  <si>
-    <t>★台北縣樹林市農會信用 部</t>
-  </si>
-  <si>
-    <t>★花旗(台灣)商業銀行樹 林分行</t>
-  </si>
-  <si>
-    <t>★花旗（台灣)商業銀行樹 林分行</t>
-  </si>
-  <si>
-    <t>★中國信託商業銀行板橋</t>
+    <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司樹林大同郵局（第90支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行樹林分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行樹林分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -175,9 +223,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>黃志雄</t>
-  </si>
-  <si>
     <t>黃◦瀚</t>
   </si>
   <si>
@@ -187,12 +232,6 @@
     <t>寅志雄</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -205,27 +244,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>太平洋電線電纜股份有限公司</t>
   </si>
   <si>
@@ -265,15 +283,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-30</t>
-  </si>
-  <si>
-    <t>tmpb8fa1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -283,55 +292,52 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>票面•價額(單位淨值）</t>
+    <t>票面價額(單位淨值）</t>
   </si>
   <si>
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>★坦全-穩定月 收</t>
-  </si>
-  <si>
-    <t>★坦全-金磚四 國</t>
-  </si>
-  <si>
-    <t>★M&amp;G全球民生</t>
-  </si>
-  <si>
-    <t>★雷曼兄弟1年 台幣連結3檔全</t>
-  </si>
-  <si>
-    <t>★德盛綠能趨勢</t>
-  </si>
-  <si>
-    <t>★寶來台灣50</t>
-  </si>
-  <si>
-    <t>★貝萊德新興歐 洲歐元</t>
-  </si>
-  <si>
-    <t>★貝萊德新能源 美元</t>
-  </si>
-  <si>
-    <t>★富達新興市場 基金</t>
-  </si>
-  <si>
-    <t>★摩根美複合收 益</t>
-  </si>
-  <si>
-    <t>★雷曼兄弟1年 台幣連結3檔全 球鞋</t>
+    <t>坦全穩定月收</t>
+  </si>
+  <si>
+    <t>坦全金磚四國</t>
+  </si>
+  <si>
+    <t>M&amp;G全球民生</t>
+  </si>
+  <si>
+    <t>雷曼兄弟1年台幣連結3檔全</t>
+  </si>
+  <si>
+    <t>德盛綠能趨勢</t>
+  </si>
+  <si>
+    <t>寶來台灣50</t>
+  </si>
+  <si>
+    <t>貝萊德新興歐洲歐元</t>
+  </si>
+  <si>
+    <t>貝萊德新能源美元</t>
+  </si>
+  <si>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>摩根美複合收益</t>
+  </si>
+  <si>
+    <t>雷曼兄弟1年台幣連結3檔全球鞋</t>
   </si>
   <si>
     <t>頁志雄</t>
   </si>
   <si>
-    <t>中國信託商業 銀行板橋分行</t>
-  </si>
-  <si>
-    <t>中國信託商業 銀行敦南分行</t>
-  </si>
-  <si>
-    <t>中國信託商業 銀行忠孝分行</t>
+    <t>中國信託商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行忠孝分行</t>
   </si>
   <si>
     <t>歐元</t>
@@ -340,37 +346,37 @@
     <t>價額</t>
   </si>
   <si>
-    <t>★鐯德(自行保存）</t>
-  </si>
-  <si>
-    <t>★奈普(自行保存）</t>
-  </si>
-  <si>
-    <t>★唯訊(自行保存）</t>
-  </si>
-  <si>
-    <t>★友達(自行保存）</t>
-  </si>
-  <si>
-    <t>★加福特(自行保存）</t>
-  </si>
-  <si>
-    <t>★亞太數位(自行保存）</t>
-  </si>
-  <si>
-    <t>★水美(自行保存）</t>
-  </si>
-  <si>
-    <t>★崇網(自行保存）</t>
-  </si>
-  <si>
-    <t>★連邦(自行保存）</t>
-  </si>
-  <si>
-    <t>★騰岳(自行保存）</t>
-  </si>
-  <si>
-    <t>★仁寶(自行保存）</t>
+    <t>鐯德(自行保存）</t>
+  </si>
+  <si>
+    <t>奈普(自行保存）</t>
+  </si>
+  <si>
+    <t>唯訊(自行保存）</t>
+  </si>
+  <si>
+    <t>友達(自行保存）</t>
+  </si>
+  <si>
+    <t>加福特(自行保存）</t>
+  </si>
+  <si>
+    <t>亞太數位(自行保存）</t>
+  </si>
+  <si>
+    <t>水美(自行保存）</t>
+  </si>
+  <si>
+    <t>崇網(自行保存）</t>
+  </si>
+  <si>
+    <t>連邦(自行保存）</t>
+  </si>
+  <si>
+    <t>騰岳(自行保存）</t>
+  </si>
+  <si>
+    <t>仁寶(自行保存）</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -382,43 +388,43 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>★南山人壽</t>
-  </si>
-  <si>
-    <t>★中泰人壽</t>
-  </si>
-  <si>
-    <t>★安聯人壽</t>
-  </si>
-  <si>
-    <t>★國泰人壽</t>
-  </si>
-  <si>
-    <t>★中華郵政</t>
-  </si>
-  <si>
-    <t>★新光人壽</t>
-  </si>
-  <si>
-    <t>★富邦人壽 ’</t>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>中泰人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
   </si>
   <si>
     <t>南山伴我一生變額壽險</t>
   </si>
   <si>
-    <t>南山好吉利21年期還本養老 保險</t>
+    <t>南山好吉利21年期還本養老保險</t>
   </si>
   <si>
     <t>南山新新增額養老保險</t>
   </si>
   <si>
-    <t>中泰人壽金富貴外幣變額年 金保險</t>
+    <t>中泰人壽金富貴外幣變額年金保險</t>
   </si>
   <si>
     <t>世界觀外幣變額萬能壽險</t>
   </si>
   <si>
-    <t>國泰美滿人生312終身壽 險</t>
+    <t>國泰美滿人生312終身壽險</t>
   </si>
   <si>
     <t>六年期吉利保險</t>
@@ -430,13 +436,13 @@
     <t>新光人壽全意終身還本保險</t>
   </si>
   <si>
-    <t>南山人壽鴻利發還本終身分 紅保險</t>
+    <t>南山人壽鴻利發還本終身分紅保險</t>
   </si>
   <si>
     <t>新光人壽全意终身還本保險</t>
   </si>
   <si>
-    <t>富邦人壽安心一生終身醫療 保險</t>
+    <t>富邦人壽安心一生終身醫療保險</t>
   </si>
   <si>
     <t>黄:志雄</t>
@@ -463,13 +469,13 @@
     <t>權</t>
   </si>
   <si>
-    <t>投 資</t>
+    <t>投資</t>
   </si>
   <si>
     <t>投資事業名稱</t>
   </si>
   <si>
-    <t>取得（發生） 時 間</t>
+    <t>取得（發生）時間</t>
   </si>
   <si>
     <t>投資事業地址</t>
@@ -834,13 +840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,31 +868,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1518.27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>647200</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -904,25 +952,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -930,25 +978,25 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -966,25 +1014,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -992,22 +1040,22 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>109.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>5232800</v>
@@ -1018,22 +1066,22 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>294.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2">
         <v>223400</v>
@@ -1044,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>307.8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2">
         <v>208700</v>
@@ -1080,22 +1128,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1103,19 +1151,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>505000</v>
@@ -1126,22 +1174,22 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>1198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1159,16 +1207,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1176,16 +1224,16 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1203,22 +1251,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1226,16 +1274,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1247,16 +1295,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1268,16 +1316,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1289,16 +1337,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1310,16 +1358,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1331,16 +1379,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1352,16 +1400,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1373,16 +1421,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1394,16 +1442,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>1079</v>
@@ -1417,16 +1465,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
         <v>0.36</v>
@@ -1440,16 +1488,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1461,16 +1509,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1482,16 +1530,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1503,16 +1551,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1524,16 +1572,16 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1545,16 +1593,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <v>129.18</v>
@@ -1568,16 +1616,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2">
         <v>19013</v>
@@ -1591,16 +1639,16 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1620,43 +1668,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1664,10 +1712,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2">
         <v>247</v>
@@ -1676,28 +1724,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>1366</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>72</v>
@@ -1708,10 +1756,10 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>14253</v>
@@ -1720,28 +1768,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>1366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>73</v>
@@ -1752,10 +1800,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2">
         <v>8500</v>
@@ -1764,28 +1812,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>1366</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2">
         <v>74</v>
@@ -1796,10 +1844,10 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2">
         <v>2388</v>
@@ -1808,28 +1856,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2">
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>1366</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2">
         <v>75</v>
@@ -1840,10 +1888,10 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>40000</v>
@@ -1852,28 +1900,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>1366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2">
         <v>76</v>
@@ -1884,10 +1932,10 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>1077</v>
@@ -1896,28 +1944,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <v>1366</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N7" s="2">
         <v>77</v>
@@ -1928,10 +1976,10 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>487</v>
@@ -1940,28 +1988,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2">
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <v>1366</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N8" s="2">
         <v>78</v>
@@ -1972,10 +2020,10 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2">
         <v>13132</v>
@@ -1984,28 +2032,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>1366</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N9" s="2">
         <v>79</v>
@@ -2016,10 +2064,10 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>102000</v>
@@ -2028,28 +2076,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2">
         <v>1366</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N10" s="2">
         <v>80</v>
@@ -2060,10 +2108,10 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>2758</v>
@@ -2072,28 +2120,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L11" s="2">
         <v>1366</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N11" s="2">
         <v>81</v>
@@ -2104,10 +2152,10 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>59000</v>
@@ -2116,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2">
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2">
         <v>1366</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N12" s="2">
         <v>82</v>
@@ -2148,10 +2196,10 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2">
         <v>431</v>
@@ -2160,28 +2208,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2">
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2">
         <v>1366</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N13" s="2">
         <v>83</v>
@@ -2202,25 +2250,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2228,13 +2276,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2243,7 +2291,7 @@
         <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2">
         <v>719939.86</v>
@@ -2254,13 +2302,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2269,7 +2317,7 @@
         <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2">
         <v>215725.2</v>
@@ -2280,13 +2328,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2295,7 +2343,7 @@
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2">
         <v>14906.47</v>
@@ -2306,13 +2354,13 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2321,7 +2369,7 @@
         <v>11.58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2">
         <v>429546.37</v>
@@ -2332,20 +2380,20 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2356,13 +2404,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2371,7 +2419,7 @@
         <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2">
         <v>205171.61</v>
@@ -2382,13 +2430,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2397,7 +2445,7 @@
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2">
         <v>269723.7</v>
@@ -2408,13 +2456,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2423,7 +2471,7 @@
         <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2">
         <v>91408.5</v>
@@ -2434,13 +2482,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2449,7 +2497,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2460,13 +2508,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2475,7 +2523,7 @@
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2">
         <v>248424.36</v>
@@ -2486,13 +2534,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2501,7 +2549,7 @@
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2">
         <v>247695.99</v>
@@ -2512,13 +2560,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2527,7 +2575,7 @@
         <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2">
         <v>179468.93</v>
@@ -2538,13 +2586,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2553,7 +2601,7 @@
         <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2">
         <v>197327.44</v>
@@ -2564,13 +2612,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2579,7 +2627,7 @@
         <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2">
         <v>464365.27</v>
@@ -2590,13 +2638,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2605,7 +2653,7 @@
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2">
         <v>401666.26</v>
@@ -2616,13 +2664,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2631,7 +2679,7 @@
         <v>11.55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H17" s="2">
         <v>419241.68</v>
@@ -2642,20 +2690,20 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2676,22 +2724,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2699,10 +2747,10 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>6000</v>
@@ -2711,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
@@ -2722,10 +2770,10 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>4462</v>
@@ -2734,7 +2782,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2745,10 +2793,10 @@
         <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>7199</v>
@@ -2757,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>71990</v>
@@ -2768,10 +2816,10 @@
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>43000</v>
@@ -2780,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2791,10 +2839,10 @@
         <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2803,7 +2851,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2814,10 +2862,10 @@
         <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2826,7 +2874,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2837,10 +2885,10 @@
         <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>1000</v>
@@ -2849,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2860,10 +2908,10 @@
         <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>5000</v>
@@ -2872,7 +2920,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2883,10 +2931,10 @@
         <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>3040</v>
@@ -2895,7 +2943,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2906,10 +2954,10 @@
         <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
         <v>6210</v>
@@ -2918,7 +2966,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2">
         <v>62100</v>
@@ -2929,10 +2977,10 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -2958,13 +3006,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2972,13 +3020,13 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2986,13 +3034,13 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3000,13 +3048,13 @@
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3014,13 +3062,13 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3028,13 +3076,13 @@
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3042,13 +3090,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3056,13 +3104,13 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3070,13 +3118,13 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3084,13 +3132,13 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3098,13 +3146,13 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3112,13 +3160,13 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3126,13 +3174,13 @@
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3140,13 +3188,13 @@
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3154,13 +3202,13 @@
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3168,13 +3216,13 @@
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3182,13 +3230,13 @@
         <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -67,10 +67,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市樹林區山佳段05670000地號</t>
-  </si>
-  <si>
-    <t>10000分之162</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>新北市樹林區山佳段01069000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>洪佳君</t>
@@ -82,7 +88,142 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>land</t>
+    <t>新北市樹林區中山路</t>
+  </si>
+  <si>
+    <t>100年01月14曰</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>97年06月26日</t>
+  </si>
+  <si>
+    <t>申華</t>
+  </si>
+  <si>
+    <t>99年09月17日</t>
+  </si>
+  <si>
+    <t>389100</t>
+  </si>
+  <si>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
+  </si>
+  <si>
+    <t>新臺幣總額或折合新臺幣總額</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司樹林大同郵局（第90支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行樹林分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行樹林分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>黃志雄</t>
+  </si>
+  <si>
+    <t>黃◦瀚</t>
+  </si>
+  <si>
+    <t>黃〇誼</t>
+  </si>
+  <si>
+    <t>寅志雄</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>華泰電子股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣光罩股份有限公司</t>
+  </si>
+  <si>
+    <t>大同股份有限公司</t>
+  </si>
+  <si>
+    <t>友達光電股份有限公司</t>
+  </si>
+  <si>
+    <t>春雨開發股份有限公司(原正華）</t>
+  </si>
+  <si>
+    <t>茂德科技股份有限公司</t>
+  </si>
+  <si>
+    <t>金橋科技股份有限公司</t>
+  </si>
+  <si>
+    <t>太平洋電線電纜股份有限公司</t>
+  </si>
+  <si>
+    <t>中華映管股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣上地開發股份有限公司</t>
+  </si>
+  <si>
+    <t>立端科技股份有限公司</t>
+  </si>
+  <si>
+    <t>貝志雄</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -91,213 +232,9 @@
     <t>2012-03-30</t>
   </si>
   <si>
-    <t>黃志雄</t>
-  </si>
-  <si>
     <t>tmpb8fa1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市樹林區山佳段01069000建號</t>
-  </si>
-  <si>
-    <t>新北市樹林區中山路</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100年01月14曰</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>申華</t>
-  </si>
-  <si>
-    <t>97年06月26日</t>
-  </si>
-  <si>
-    <t>99年09月17日</t>
-  </si>
-  <si>
-    <t>389100</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司樹林大同郵局（第90支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部</t>
-  </si>
-  <si>
-    <t>花旗(台灣)商業銀行樹林分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣)商業銀行樹林分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>黃◦瀚</t>
-  </si>
-  <si>
-    <t>黃〇誼</t>
-  </si>
-  <si>
-    <t>寅志雄</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>太平洋電線電纜股份有限公司</t>
-  </si>
-  <si>
-    <t>華泰電子股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣光罩股份有限公司</t>
-  </si>
-  <si>
-    <t>大同股份有限公司</t>
-  </si>
-  <si>
-    <t>友達光電股份有限公司</t>
-  </si>
-  <si>
-    <t>春雨開發股份有限公司(原正華）</t>
-  </si>
-  <si>
-    <t>茂德科技股份有限公司</t>
-  </si>
-  <si>
-    <t>金橋科技股份有限公司</t>
-  </si>
-  <si>
-    <t>中華映管股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣上地開發股份有限公司</t>
-  </si>
-  <si>
-    <t>立端科技股份有限公司</t>
-  </si>
-  <si>
-    <t>貝志雄</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>坦全穩定月收</t>
   </si>
   <si>
@@ -343,9 +280,6 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>鐯德(自行保存）</t>
   </si>
   <si>
@@ -379,18 +313,12 @@
     <t>仁寶(自行保存）</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>南山伴我一生變額壽險</t>
+  </si>
+  <si>
     <t>中泰人壽</t>
   </si>
   <si>
@@ -409,9 +337,6 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>南山伴我一生變額壽險</t>
-  </si>
-  <si>
     <t>南山好吉利21年期還本養老保險</t>
   </si>
   <si>
@@ -451,37 +376,25 @@
     <t>黃◦誼</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>務</t>
+    <t>投資</t>
   </si>
   <si>
     <t>人</t>
   </si>
   <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
     <t>投資事業名稱</t>
   </si>
   <si>
+    <t>投資事業地址</t>
+  </si>
+  <si>
+    <t>投資金額</t>
+  </si>
+  <si>
     <t>取得（發生）時間</t>
   </si>
   <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
+    <t>取得（發生）原因</t>
   </si>
 </sst>
 </file>
@@ -840,13 +753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,52 +802,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1518.27</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>647200</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1366</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +816,43 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -952,164 +860,76 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>109.85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5232800</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>294.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>109.85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>5232800</v>
+        <v>223400</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>307.8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2">
-        <v>294.5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="2">
-        <v>223400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2">
-        <v>307.8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
         <v>208700</v>
       </c>
     </row>
@@ -1120,7 +940,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,68 +948,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>505000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>1497</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1198</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1199,41 +996,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1251,407 +1031,384 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>763954</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>763954</v>
+        <v>1624866</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1624866</v>
+        <v>30298</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>30298</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>37420</v>
+        <v>2162368</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>2162368</v>
+        <v>10374740</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>10374740</v>
+        <v>116250</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>116250</v>
+        <v>206247</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1079</v>
+      </c>
       <c r="G9" s="2">
-        <v>206247</v>
+        <v>32370</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2">
-        <v>1079</v>
+        <v>0.36</v>
       </c>
       <c r="G10" s="2">
-        <v>32370</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>10.8</v>
+        <v>300434</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>300434</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>85</v>
+        <v>22964</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>22964</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>10939</v>
+        <v>88230</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F16" s="2">
+        <v>129.18</v>
+      </c>
       <c r="G16" s="2">
-        <v>88230</v>
+        <v>3875.4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>129.18</v>
+        <v>19013</v>
       </c>
       <c r="G17" s="2">
-        <v>3875.4</v>
+        <v>570390</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <v>19013</v>
-      </c>
-      <c r="G18" s="2">
-        <v>570390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>63</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1660,7 +1417,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,16 +1431,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1709,529 +1466,485 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2">
-        <v>247</v>
+        <v>14253</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
-        <v>2470</v>
+        <v>142530</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2">
         <v>1366</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N2" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2">
-        <v>14253</v>
+        <v>8500</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
-        <v>142530</v>
+        <v>85000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2">
         <v>1366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N3" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
-        <v>8500</v>
+        <v>2388</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
-        <v>85000</v>
+        <v>23880</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2">
         <v>1366</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N4" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
-        <v>2388</v>
+        <v>40000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>23880</v>
+        <v>400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2">
         <v>1366</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N5" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2">
-        <v>40000</v>
+        <v>1077</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
-        <v>400000</v>
+        <v>10770</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2">
         <v>1366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N6" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2">
-        <v>1077</v>
+        <v>487</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
-        <v>10770</v>
+        <v>4870</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L7" s="2">
         <v>1366</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N7" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2">
-        <v>487</v>
+        <v>13132</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
-        <v>4870</v>
+        <v>131320</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2">
         <v>1366</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N8" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>13132</v>
+        <v>102000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>131320</v>
+        <v>1020000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L9" s="2">
         <v>1366</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N9" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>102000</v>
+        <v>2758</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2">
-        <v>1020000</v>
+        <v>27580</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L10" s="2">
         <v>1366</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N10" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>2758</v>
+        <v>59000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2">
-        <v>27580</v>
+        <v>590000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L11" s="2">
         <v>1366</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N11" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>59000</v>
+        <v>431</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2">
-        <v>590000</v>
+        <v>4310</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="L12" s="2">
         <v>1366</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N12" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>83</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2">
-        <v>431</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4310</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1366</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="2">
         <v>83</v>
       </c>
     </row>
@@ -2242,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2250,462 +1963,436 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2110.818</v>
+      </c>
+      <c r="F1" s="1">
+        <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="H1" s="1">
+        <v>719939.86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
-        <v>2110.818</v>
+        <v>452.06</v>
       </c>
       <c r="F2" s="2">
-        <v>11.55</v>
+        <v>16.16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
-        <v>719939.86</v>
+        <v>215725.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2">
-        <v>452.06</v>
+        <v>1287.26</v>
       </c>
       <c r="F3" s="2">
-        <v>16.16</v>
+        <v>11.58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2">
-        <v>215725.2</v>
+        <v>14906.47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2">
-        <v>1287.26</v>
+        <v>1256.14</v>
       </c>
       <c r="F4" s="2">
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
-        <v>14906.47</v>
+        <v>429546.37</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2">
-        <v>1256.14</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11.58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
-        <v>429546.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>28105.7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.3</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>205171.61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2">
-        <v>28105.7</v>
+        <v>4913</v>
       </c>
       <c r="F7" s="2">
-        <v>7.3</v>
+        <v>54.9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2">
-        <v>205171.61</v>
+        <v>269723.7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2">
-        <v>4913</v>
+        <v>1665</v>
       </c>
       <c r="F8" s="2">
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2">
-        <v>269723.7</v>
+        <v>91408.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
-        <v>1665</v>
+        <v>55.39</v>
       </c>
       <c r="F9" s="2">
-        <v>54.9</v>
+        <v>91.23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2">
-        <v>91408.5</v>
+        <v>199248.85</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
-        <v>55.39</v>
+        <v>1282.41</v>
       </c>
       <c r="F10" s="2">
-        <v>91.23</v>
+        <v>6.56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
-        <v>199248.85</v>
+        <v>248424.36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2">
-        <v>1282.41</v>
+        <v>1278.65</v>
       </c>
       <c r="F11" s="2">
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2">
-        <v>248424.36</v>
+        <v>247695.99</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2">
-        <v>1278.65</v>
+        <v>926.45</v>
       </c>
       <c r="F12" s="2">
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2">
-        <v>247695.99</v>
+        <v>179468.93</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2">
-        <v>926.45</v>
+        <v>323.44</v>
       </c>
       <c r="F13" s="2">
-        <v>6.56</v>
+        <v>20.66</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2">
-        <v>179468.93</v>
+        <v>197327.44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2">
-        <v>323.44</v>
+        <v>1471.02</v>
       </c>
       <c r="F14" s="2">
-        <v>20.66</v>
+        <v>10.69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2">
-        <v>197327.44</v>
+        <v>464365.27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2">
-        <v>1471.02</v>
+        <v>1177.66</v>
       </c>
       <c r="F15" s="2">
-        <v>10.69</v>
+        <v>11.55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2">
-        <v>464365.27</v>
+        <v>401666.26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2">
-        <v>1177.66</v>
+        <v>1229.19</v>
       </c>
       <c r="F16" s="2">
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2">
-        <v>401666.26</v>
+        <v>419241.68</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2">
-        <v>1229.19</v>
-      </c>
-      <c r="F17" s="2">
-        <v>11.55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H17" s="2">
-        <v>419241.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>111</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="2">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2716,7 +2403,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2724,125 +2411,125 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>47</v>
+      </c>
+      <c r="D1" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="G1" s="1">
+        <v>60000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2">
-        <v>6000</v>
+        <v>4462</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
-        <v>60000</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
-        <v>4462</v>
+        <v>7199</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
-        <v>44620</v>
+        <v>71990</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
-        <v>7199</v>
+        <v>43000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
-        <v>71990</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
-        <v>43000</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>430000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2851,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2859,13 +2546,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2874,7 +2561,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2882,112 +2569,89 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
-        <v>5000</v>
+        <v>3040</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>50000</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2">
-        <v>3040</v>
+        <v>6210</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2">
-        <v>30400</v>
+        <v>62100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6210</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>62100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>127</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>250</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
         <v>10</v>
       </c>
     </row>
@@ -2998,7 +2662,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3006,237 +2670,223 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>150</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -73,24 +73,45 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市樹林區山佳段05670000地號</t>
+  </si>
+  <si>
+    <t>10000分之162</t>
+  </si>
+  <si>
+    <t>洪佳君</t>
+  </si>
+  <si>
+    <t>97年04月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-30</t>
+  </si>
+  <si>
+    <t>黃志雄</t>
+  </si>
+  <si>
+    <t>tmpb8fa1</t>
+  </si>
+  <si>
     <t>新北市樹林區山佳段01069000建號</t>
   </si>
   <si>
+    <t>新北市樹林區中山路</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>洪佳君</t>
-  </si>
-  <si>
-    <t>97年04月09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>新北市樹林區中山路</t>
-  </si>
-  <si>
     <t>100年01月14曰</t>
   </si>
   <si>
@@ -166,9 +187,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>黃志雄</t>
-  </si>
-  <si>
     <t>黃◦瀚</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>太平洋電線電纜股份有限公司</t>
+  </si>
+  <si>
     <t>華泰電子股份有限公司</t>
   </si>
   <si>
@@ -208,9 +229,6 @@
     <t>金橋科技股份有限公司</t>
   </si>
   <si>
-    <t>太平洋電線電纜股份有限公司</t>
-  </si>
-  <si>
     <t>中華映管股份有限公司</t>
   </si>
   <si>
@@ -224,15 +242,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-30</t>
-  </si>
-  <si>
-    <t>tmpb8fa1</t>
   </si>
   <si>
     <t>坦全穩定月收</t>
@@ -753,13 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,6 +816,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1518.27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>647200</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0162</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>24.595974</v>
       </c>
     </row>
   </sheetData>
@@ -816,33 +878,59 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>123</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -852,85 +940,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>109.85</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1">
-        <v>5232800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>294.5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>223400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>5232800</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>109.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
-        <v>307.8</v>
+        <v>294.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="2">
+        <v>223400</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>307.8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
         <v>208700</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>307.8</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -948,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1">
         <v>1497</v>
@@ -957,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -968,25 +1190,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>1198</v>
+        <v>1497</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
+      <c r="G2" s="2">
+        <v>505000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1198</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -996,24 +1241,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1285,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1031,13 +1293,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1049,366 +1311,387 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1624866</v>
+        <v>763954</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>30298</v>
+        <v>1624866</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>37420</v>
+        <v>30298</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2162368</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>10374740</v>
+        <v>2162368</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>116250</v>
+        <v>10374740</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>206247</v>
+        <v>116250</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1079</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>32370</v>
+        <v>206247</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>0.36</v>
+        <v>1079</v>
       </c>
       <c r="G10" s="2">
-        <v>10.8</v>
+        <v>32370</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.36</v>
+      </c>
       <c r="G11" s="2">
-        <v>300434</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>85</v>
+        <v>300434</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>22964</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>10939</v>
+        <v>22964</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>88230</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2">
-        <v>129.18</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>3875.4</v>
+        <v>88230</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>19013</v>
+        <v>129.18</v>
       </c>
       <c r="G17" s="2">
-        <v>570390</v>
+        <v>3875.4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>19013</v>
+      </c>
+      <c r="G18" s="2">
+        <v>570390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>63</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1417,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1431,13 +1714,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1466,485 +1749,529 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2">
-        <v>14253</v>
+        <v>247</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
-        <v>142530</v>
+        <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1366</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>8500</v>
+        <v>14253</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
-        <v>85000</v>
+        <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2">
-        <v>2388</v>
+        <v>8500</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>23880</v>
+        <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1366</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
-        <v>40000</v>
+        <v>2388</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
-        <v>400000</v>
+        <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1366</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>1077</v>
+        <v>40000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
-        <v>10770</v>
+        <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>487</v>
+        <v>1077</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
-        <v>4870</v>
+        <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1366</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>13132</v>
+        <v>487</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
-        <v>131320</v>
+        <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1366</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2">
-        <v>102000</v>
+        <v>13132</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
-        <v>1020000</v>
+        <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1366</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>2758</v>
+        <v>102000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
-        <v>27580</v>
+        <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1366</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>59000</v>
+        <v>2758</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
-        <v>590000</v>
+        <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>1366</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>431</v>
+        <v>59000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
-        <v>4310</v>
+        <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <v>1366</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N12" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>431</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4310</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="2">
         <v>83</v>
       </c>
     </row>
@@ -1955,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1963,13 +2290,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1">
         <v>2110.818</v>
@@ -1978,7 +2305,7 @@
         <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1">
         <v>719939.86</v>
@@ -1986,413 +2313,439 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
-        <v>452.06</v>
+        <v>2110.818</v>
       </c>
       <c r="F2" s="2">
-        <v>16.16</v>
+        <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
-        <v>215725.2</v>
+        <v>719939.86</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
-        <v>1287.26</v>
+        <v>452.06</v>
       </c>
       <c r="F3" s="2">
-        <v>11.58</v>
+        <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
-        <v>14906.47</v>
+        <v>215725.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
-        <v>1256.14</v>
+        <v>1287.26</v>
       </c>
       <c r="F4" s="2">
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2">
-        <v>429546.37</v>
+        <v>14906.47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>1256.14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11.58</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>429546.37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
-        <v>28105.7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7.3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2">
-        <v>205171.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
-        <v>4913</v>
+        <v>28105.7</v>
       </c>
       <c r="F7" s="2">
-        <v>54.9</v>
+        <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2">
-        <v>269723.7</v>
+        <v>205171.61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
-        <v>1665</v>
+        <v>4913</v>
       </c>
       <c r="F8" s="2">
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2">
-        <v>91408.5</v>
+        <v>269723.7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
-        <v>55.39</v>
+        <v>1665</v>
       </c>
       <c r="F9" s="2">
-        <v>91.23</v>
+        <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2">
-        <v>199248.85</v>
+        <v>91408.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2">
-        <v>1282.41</v>
+        <v>55.39</v>
       </c>
       <c r="F10" s="2">
-        <v>6.56</v>
+        <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2">
-        <v>248424.36</v>
+        <v>199248.85</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
-        <v>1278.65</v>
+        <v>1282.41</v>
       </c>
       <c r="F11" s="2">
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2">
-        <v>247695.99</v>
+        <v>248424.36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
-        <v>926.45</v>
+        <v>1278.65</v>
       </c>
       <c r="F12" s="2">
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2">
-        <v>179468.93</v>
+        <v>247695.99</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2">
-        <v>323.44</v>
+        <v>926.45</v>
       </c>
       <c r="F13" s="2">
-        <v>20.66</v>
+        <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2">
-        <v>197327.44</v>
+        <v>179468.93</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
-        <v>1471.02</v>
+        <v>323.44</v>
       </c>
       <c r="F14" s="2">
-        <v>10.69</v>
+        <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2">
-        <v>464365.27</v>
+        <v>197327.44</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2">
-        <v>1177.66</v>
+        <v>1471.02</v>
       </c>
       <c r="F15" s="2">
-        <v>11.55</v>
+        <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2">
-        <v>401666.26</v>
+        <v>464365.27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2">
-        <v>1229.19</v>
+        <v>1177.66</v>
       </c>
       <c r="F16" s="2">
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2">
-        <v>419241.68</v>
+        <v>401666.26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
+        <v>110</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1229.19</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11.55</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2">
+        <v>419241.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>111</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="B18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2">
         <v>50</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2403,7 +2756,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2411,10 +2764,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1">
         <v>6000</v>
@@ -2423,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
@@ -2431,105 +2784,105 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>4462</v>
+        <v>6000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
-        <v>44620</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>7199</v>
+        <v>4462</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
-        <v>71990</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>43000</v>
+        <v>7199</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>430000</v>
+        <v>71990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>1000</v>
+        <v>43000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
-        <v>10000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2538,7 +2891,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2546,13 +2899,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2561,7 +2914,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2569,89 +2922,112 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>3040</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
-        <v>30400</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>6210</v>
+        <v>3040</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
-        <v>62100</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>124</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6210</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2">
+        <v>62100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>127</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
         <v>250</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>10</v>
       </c>
     </row>
@@ -2662,7 +3038,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2670,10 +3046,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -2681,13 +3057,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -2695,13 +3071,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2709,13 +3085,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2723,13 +3099,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -2737,13 +3113,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -2751,13 +3127,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -2765,13 +3141,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -2779,113 +3155,127 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>149</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -115,13 +115,16 @@
     <t>100年01月14曰</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>Toyota</t>
   </si>
   <si>
+    <t>申華</t>
+  </si>
+  <si>
     <t>97年06月26日</t>
-  </si>
-  <si>
-    <t>申華</t>
   </si>
   <si>
     <t>99年09月17日</t>
@@ -886,25 +889,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -912,25 +915,25 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1162,38 +1165,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1">
-        <v>1497</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
@@ -1202,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -1210,8 +1234,29 @@
       <c r="G2" s="2">
         <v>505000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>32</v>
       </c>
@@ -1225,13 +1270,34 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1249,16 +1315,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1266,16 +1332,16 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1293,13 +1359,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1314,13 +1380,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1335,13 +1401,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1356,16 +1422,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1377,16 +1443,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1398,13 +1464,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1419,16 +1485,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1440,13 +1506,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1461,13 +1527,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1482,13 +1548,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1505,13 +1571,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1528,13 +1594,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1549,13 +1615,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1570,13 +1636,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1591,13 +1657,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1612,13 +1678,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1633,13 +1699,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1656,13 +1722,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1679,13 +1745,13 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -1714,13 +1780,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1752,10 +1818,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2">
         <v>247</v>
@@ -1764,13 +1830,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1796,7 +1862,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1808,13 +1874,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1840,10 +1906,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2">
         <v>8500</v>
@@ -1852,13 +1918,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1884,10 +1950,10 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2">
         <v>2388</v>
@@ -1896,13 +1962,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1928,7 +1994,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1940,13 +2006,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1972,7 +2038,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1984,13 +2050,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -2016,7 +2082,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2028,13 +2094,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -2060,10 +2126,10 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
         <v>13132</v>
@@ -2072,13 +2138,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2104,7 +2170,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2116,13 +2182,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2148,7 +2214,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2160,13 +2226,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2192,7 +2258,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2204,13 +2270,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2">
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2236,7 +2302,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2248,13 +2314,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2290,13 +2356,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1">
         <v>2110.818</v>
@@ -2305,7 +2371,7 @@
         <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1">
         <v>719939.86</v>
@@ -2316,13 +2382,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2331,7 +2397,7 @@
         <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2">
         <v>719939.86</v>
@@ -2342,13 +2408,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2357,7 +2423,7 @@
         <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2">
         <v>215725.2</v>
@@ -2368,13 +2434,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2383,7 +2449,7 @@
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2">
         <v>14906.47</v>
@@ -2394,13 +2460,13 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2409,7 +2475,7 @@
         <v>11.58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2">
         <v>429546.37</v>
@@ -2420,20 +2486,20 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2444,13 +2510,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2459,7 +2525,7 @@
         <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2">
         <v>205171.61</v>
@@ -2470,13 +2536,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2485,7 +2551,7 @@
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2">
         <v>269723.7</v>
@@ -2496,13 +2562,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2511,7 +2577,7 @@
         <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2">
         <v>91408.5</v>
@@ -2522,13 +2588,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2537,7 +2603,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2548,13 +2614,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2563,7 +2629,7 @@
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2">
         <v>248424.36</v>
@@ -2574,13 +2640,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2589,7 +2655,7 @@
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2">
         <v>247695.99</v>
@@ -2600,13 +2666,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2615,7 +2681,7 @@
         <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2">
         <v>179468.93</v>
@@ -2626,13 +2692,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2641,7 +2707,7 @@
         <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2">
         <v>197327.44</v>
@@ -2652,13 +2718,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2667,7 +2733,7 @@
         <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2">
         <v>464365.27</v>
@@ -2678,13 +2744,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2693,7 +2759,7 @@
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2">
         <v>401666.26</v>
@@ -2704,13 +2770,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2719,7 +2785,7 @@
         <v>11.55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2">
         <v>419241.68</v>
@@ -2730,20 +2796,20 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2764,7 +2830,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -2776,7 +2842,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
@@ -2787,7 +2853,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -2799,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
@@ -2810,7 +2876,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2822,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2833,7 +2899,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2845,7 +2911,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>71990</v>
@@ -2856,7 +2922,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2868,7 +2934,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2879,7 +2945,7 @@
         <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -2891,7 +2957,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2902,10 +2968,10 @@
         <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2914,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2925,7 +2991,7 @@
         <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2937,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2948,7 +3014,7 @@
         <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2960,7 +3026,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2971,7 +3037,7 @@
         <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2983,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2994,7 +3060,7 @@
         <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -3006,7 +3072,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2">
         <v>62100</v>
@@ -3017,7 +3083,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -3046,10 +3112,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -3060,10 +3126,10 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -3074,10 +3140,10 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -3088,10 +3154,10 @@
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -3102,10 +3168,10 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -3116,10 +3182,10 @@
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -3130,10 +3196,10 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -3144,10 +3210,10 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -3158,10 +3224,10 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -3172,10 +3238,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -3186,13 +3252,13 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3200,10 +3266,10 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -3214,10 +3280,10 @@
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -3228,13 +3294,13 @@
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3242,13 +3308,13 @@
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3256,13 +3322,13 @@
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3270,10 +3336,10 @@
         <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -10,20 +10,19 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="航空器" sheetId="4" r:id="rId4"/>
-    <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="股票" sheetId="6" r:id="rId6"/>
-    <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
-    <sheet name="其他有價證券" sheetId="8" r:id="rId8"/>
-    <sheet name="保險" sheetId="9" r:id="rId9"/>
-    <sheet name="債務" sheetId="10" r:id="rId10"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
+    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="8" r:id="rId8"/>
+    <sheet name="債務" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -115,6 +114,9 @@
     <t>100年01月14曰</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -133,16 +135,7 @@
     <t>389100</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
@@ -879,68 +872,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>160</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q4"/>
@@ -1025,7 +956,7 @@
         <v>5232800</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
@@ -1078,7 +1009,7 @@
         <v>223400</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>22</v>
@@ -1131,7 +1062,7 @@
         <v>208700</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>22</v>
@@ -1176,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1217,7 +1148,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
@@ -1226,7 +1157,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -1235,7 +1166,7 @@
         <v>505000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1261,7 +1192,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>1198</v>
@@ -1270,16 +1201,16 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1306,50 +1237,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -1359,13 +1246,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1380,13 +1267,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1401,13 +1288,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1422,16 +1309,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1443,16 +1330,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1464,13 +1351,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1485,16 +1372,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1506,13 +1393,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1527,13 +1414,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
@@ -1548,13 +1435,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1571,13 +1458,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1594,13 +1481,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1615,13 +1502,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1636,13 +1523,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1657,13 +1544,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1678,13 +1565,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1699,13 +1586,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1722,13 +1609,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1745,13 +1632,13 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -1764,7 +1651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -1780,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1818,10 +1705,10 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2">
         <v>247</v>
@@ -1830,13 +1717,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1862,7 +1749,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1874,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1906,10 +1793,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2">
         <v>8500</v>
@@ -1918,13 +1805,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1950,10 +1837,10 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2">
         <v>2388</v>
@@ -1962,13 +1849,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1994,7 +1881,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -2006,13 +1893,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -2038,7 +1925,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2050,13 +1937,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -2082,7 +1969,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2094,13 +1981,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -2126,10 +2013,10 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2">
         <v>13132</v>
@@ -2138,13 +2025,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2170,7 +2057,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2182,13 +2069,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2214,7 +2101,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2226,13 +2113,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2258,7 +2145,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2270,13 +2157,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2302,7 +2189,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2314,13 +2201,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2">
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2346,7 +2233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -2356,13 +2243,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1">
         <v>2110.818</v>
@@ -2371,7 +2258,7 @@
         <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1">
         <v>719939.86</v>
@@ -2382,13 +2269,13 @@
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2397,7 +2284,7 @@
         <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2">
         <v>719939.86</v>
@@ -2408,13 +2295,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2423,7 +2310,7 @@
         <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2">
         <v>215725.2</v>
@@ -2434,13 +2321,13 @@
         <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2449,7 +2336,7 @@
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <v>14906.47</v>
@@ -2460,13 +2347,13 @@
         <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2475,7 +2362,7 @@
         <v>11.58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2">
         <v>429546.37</v>
@@ -2486,20 +2373,20 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2510,13 +2397,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2525,7 +2412,7 @@
         <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>205171.61</v>
@@ -2536,13 +2423,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2551,7 +2438,7 @@
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>269723.7</v>
@@ -2562,13 +2449,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2577,7 +2464,7 @@
         <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2">
         <v>91408.5</v>
@@ -2588,13 +2475,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2603,7 +2490,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2614,13 +2501,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2629,7 +2516,7 @@
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2">
         <v>248424.36</v>
@@ -2640,13 +2527,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2655,7 +2542,7 @@
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
         <v>247695.99</v>
@@ -2666,13 +2553,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2681,7 +2568,7 @@
         <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2">
         <v>179468.93</v>
@@ -2692,13 +2579,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2707,7 +2594,7 @@
         <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2">
         <v>197327.44</v>
@@ -2718,13 +2605,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2733,7 +2620,7 @@
         <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2">
         <v>464365.27</v>
@@ -2744,13 +2631,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2759,7 +2646,7 @@
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2">
         <v>401666.26</v>
@@ -2770,13 +2657,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2785,7 +2672,7 @@
         <v>11.55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2">
         <v>419241.68</v>
@@ -2796,20 +2683,20 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2820,7 +2707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2830,7 +2717,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -2842,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
@@ -2853,7 +2740,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -2865,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
@@ -2876,7 +2763,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2888,7 +2775,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2899,7 +2786,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2911,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>71990</v>
@@ -2922,7 +2809,7 @@
         <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2934,7 +2821,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2945,7 +2832,7 @@
         <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -2957,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2968,10 +2855,10 @@
         <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2980,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2991,7 +2878,7 @@
         <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -3003,7 +2890,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -3014,7 +2901,7 @@
         <v>122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -3026,7 +2913,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -3037,7 +2924,7 @@
         <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -3049,7 +2936,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -3060,7 +2947,7 @@
         <v>124</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -3072,7 +2959,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>62100</v>
@@ -3083,7 +2970,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -3102,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3112,10 +2999,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -3126,10 +3013,10 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -3140,10 +3027,10 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -3154,10 +3041,10 @@
         <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -3168,10 +3055,10 @@
         <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -3182,10 +3069,10 @@
         <v>139</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -3196,10 +3083,10 @@
         <v>140</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -3210,10 +3097,10 @@
         <v>141</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -3224,10 +3111,10 @@
         <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -3238,10 +3125,10 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -3252,13 +3139,13 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3266,10 +3153,10 @@
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -3280,10 +3167,10 @@
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -3294,13 +3181,13 @@
         <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3308,13 +3195,13 @@
         <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3322,13 +3209,13 @@
         <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3336,13 +3223,75 @@
         <v>150</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -138,48 +138,54 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司樹林鎮前街郵局(第85支局）</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司樹林大同郵局（第90支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部</t>
+  </si>
+  <si>
+    <t>花旗(台灣)商業銀行樹林分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行樹林分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司樹林大同郵局(第90支局）</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司樹林大同郵局（第90支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部</t>
-  </si>
-  <si>
-    <t>花旗(台灣)商業銀行樹林分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣)商業銀行樹林分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -192,13 +198,13 @@
     <t>寅志雄</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>太平洋電線電纜股份有限公司</t>
@@ -1238,13 +1244,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1255,396 +1261,770 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>763954</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>763954</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1624866</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2">
         <v>30298</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2">
         <v>37420</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>2162368</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2">
         <v>10374740</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>116250</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>206247</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>1079</v>
-      </c>
-      <c r="G10" s="2">
         <v>32370</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="G11" s="2">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>300434</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>22964</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>10939</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>88230</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>129.18</v>
-      </c>
-      <c r="G17" s="2">
         <v>3875.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>570390</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2">
-        <v>19013</v>
-      </c>
-      <c r="G18" s="2">
-        <v>570390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>63</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2">
+        <v>358925</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="2">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1667,13 +2047,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1702,13 +2082,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2">
         <v>247</v>
@@ -1717,13 +2097,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1741,15 +2121,15 @@
         <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1761,13 +2141,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1785,18 +2165,18 @@
         <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2">
         <v>8500</v>
@@ -1805,13 +2185,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1829,18 +2209,18 @@
         <v>25</v>
       </c>
       <c r="N4" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2">
         <v>2388</v>
@@ -1849,13 +2229,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>23880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1873,15 +2253,15 @@
         <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1893,13 +2273,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1917,15 +2297,15 @@
         <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1937,13 +2317,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -1961,15 +2341,15 @@
         <v>25</v>
       </c>
       <c r="N7" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -1981,13 +2361,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -2005,18 +2385,18 @@
         <v>25</v>
       </c>
       <c r="N8" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
         <v>13132</v>
@@ -2025,13 +2405,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2049,15 +2429,15 @@
         <v>25</v>
       </c>
       <c r="N9" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2069,13 +2449,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2093,15 +2473,15 @@
         <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2113,13 +2493,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2137,15 +2517,15 @@
         <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2157,13 +2537,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
         <v>590000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2181,15 +2561,15 @@
         <v>25</v>
       </c>
       <c r="N12" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2201,13 +2581,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2">
         <v>4310</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2225,7 +2605,7 @@
         <v>25</v>
       </c>
       <c r="N13" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2243,13 +2623,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1">
         <v>2110.818</v>
@@ -2258,7 +2638,7 @@
         <v>11.55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1">
         <v>719939.86</v>
@@ -2266,16 +2646,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>2110.818</v>
@@ -2284,7 +2664,7 @@
         <v>11.55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2">
         <v>719939.86</v>
@@ -2292,16 +2672,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2310,7 +2690,7 @@
         <v>16.16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2">
         <v>215725.2</v>
@@ -2318,16 +2698,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
         <v>1287.26</v>
@@ -2336,7 +2716,7 @@
         <v>11.58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
         <v>14906.47</v>
@@ -2344,16 +2724,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2">
         <v>1256.14</v>
@@ -2362,7 +2742,7 @@
         <v>11.58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2">
         <v>429546.37</v>
@@ -2370,23 +2750,23 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2394,16 +2774,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <v>28105.7</v>
@@ -2412,7 +2792,7 @@
         <v>7.3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2">
         <v>205171.61</v>
@@ -2420,16 +2800,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>4913</v>
@@ -2438,7 +2818,7 @@
         <v>54.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2">
         <v>269723.7</v>
@@ -2446,16 +2826,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>1665</v>
@@ -2464,7 +2844,7 @@
         <v>54.9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2">
         <v>91408.5</v>
@@ -2472,16 +2852,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2490,7 +2870,7 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
@@ -2498,16 +2878,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
         <v>1282.41</v>
@@ -2516,7 +2896,7 @@
         <v>6.56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2">
         <v>248424.36</v>
@@ -2524,16 +2904,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
         <v>1278.65</v>
@@ -2542,7 +2922,7 @@
         <v>6.56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2">
         <v>247695.99</v>
@@ -2550,16 +2930,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2">
         <v>926.45</v>
@@ -2568,7 +2948,7 @@
         <v>6.56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2">
         <v>179468.93</v>
@@ -2576,16 +2956,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>323.44</v>
@@ -2594,7 +2974,7 @@
         <v>20.66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2">
         <v>197327.44</v>
@@ -2602,16 +2982,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2">
         <v>1471.02</v>
@@ -2620,7 +3000,7 @@
         <v>10.69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2">
         <v>464365.27</v>
@@ -2628,16 +3008,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2">
         <v>1177.66</v>
@@ -2646,7 +3026,7 @@
         <v>11.55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2">
         <v>401666.26</v>
@@ -2654,16 +3034,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2">
         <v>1229.19</v>
@@ -2672,7 +3052,7 @@
         <v>11.55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2">
         <v>419241.68</v>
@@ -2680,23 +3060,23 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2">
         <v>50</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2717,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -2729,7 +3109,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
@@ -2737,10 +3117,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -2752,7 +3132,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
@@ -2760,10 +3140,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2775,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2783,10 +3163,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2798,7 +3178,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>71990</v>
@@ -2806,10 +3186,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2821,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2829,10 +3209,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -2844,7 +3224,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2852,13 +3232,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2867,7 +3247,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2875,10 +3255,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2890,7 +3270,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2898,10 +3278,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2913,7 +3293,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2921,10 +3301,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2936,7 +3316,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2944,10 +3324,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2959,7 +3339,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2">
         <v>62100</v>
@@ -2967,10 +3347,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -2999,10 +3379,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -3010,13 +3390,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -3024,13 +3404,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -3038,13 +3418,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -3052,13 +3432,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -3066,13 +3446,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -3080,13 +3460,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -3094,13 +3474,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -3108,13 +3488,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -3122,13 +3502,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -3136,27 +3516,27 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -3164,13 +3544,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -3178,55 +3558,55 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -3247,51 +3627,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -246,6 +246,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>坦全穩定月收</t>
   </si>
   <si>
@@ -291,6 +294,9 @@
     <t>歐元</t>
   </si>
   <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>鐯德(自行保存）</t>
   </si>
   <si>
@@ -322,6 +328,9 @@
   </si>
   <si>
     <t>仁寶(自行保存）</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -2615,41 +2624,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2110.818</v>
-      </c>
-      <c r="F1" s="1">
-        <v>11.55</v>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1">
-        <v>719939.86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2669,19 +2699,40 @@
       <c r="H2" s="2">
         <v>719939.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>452.06</v>
@@ -2695,13 +2746,34 @@
       <c r="H3" s="2">
         <v>215725.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -2721,13 +2793,34 @@
       <c r="H4" s="2">
         <v>14906.47</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -2747,13 +2840,34 @@
       <c r="H5" s="2">
         <v>429546.37</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2771,13 +2885,34 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2797,13 +2932,34 @@
       <c r="H7" s="2">
         <v>205171.61</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2823,13 +2979,34 @@
       <c r="H8" s="2">
         <v>269723.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2849,19 +3026,40 @@
       <c r="H9" s="2">
         <v>91408.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>55.39</v>
@@ -2870,18 +3068,39 @@
         <v>91.23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H10" s="2">
         <v>199248.85</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -2901,13 +3120,34 @@
       <c r="H11" s="2">
         <v>248424.36</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -2927,13 +3167,34 @@
       <c r="H12" s="2">
         <v>247695.99</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -2953,16 +3214,37 @@
       <c r="H13" s="2">
         <v>179468.93</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>45</v>
@@ -2979,13 +3261,34 @@
       <c r="H14" s="2">
         <v>197327.44</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -3005,13 +3308,34 @@
       <c r="H15" s="2">
         <v>464365.27</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -3031,13 +3355,34 @@
       <c r="H16" s="2">
         <v>401666.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>107</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -3057,13 +3402,34 @@
       <c r="H17" s="2">
         <v>419241.68</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>108</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
@@ -3080,6 +3446,27 @@
       </c>
       <c r="H18" s="2">
         <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3089,38 +3476,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1">
-        <v>6000</v>
-      </c>
-      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -3137,13 +3545,34 @@
       <c r="G2" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -3160,13 +3589,34 @@
       <c r="G3" s="2">
         <v>44620</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -3183,13 +3633,34 @@
       <c r="G4" s="2">
         <v>71990</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -3206,13 +3677,34 @@
       <c r="G5" s="2">
         <v>430000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -3229,16 +3721,37 @@
       <c r="G6" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -3252,13 +3765,34 @@
       <c r="G7" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -3275,13 +3809,34 @@
       <c r="G8" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -3298,13 +3853,34 @@
       <c r="G9" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -3321,13 +3897,34 @@
       <c r="G10" s="2">
         <v>30400</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>121</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -3344,24 +3941,70 @@
       <c r="G11" s="2">
         <v>62100</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>250</v>
+      </c>
       <c r="E12" s="2">
-        <v>250</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>2500</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3379,10 +4022,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -3390,13 +4033,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -3404,13 +4047,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -3418,13 +4061,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -3432,13 +4075,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -3446,13 +4089,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -3460,13 +4103,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -3474,13 +4117,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -3488,13 +4131,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -3502,13 +4145,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -3516,27 +4159,27 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -3544,13 +4187,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -3558,13 +4201,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>57</v>
@@ -3572,27 +4215,27 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>56</v>
@@ -3600,13 +4243,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
@@ -3627,51 +4270,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
+++ b/legislator/property/output/normal/黃志雄_2012-03-30_財產申報表_tmpb8fa1.xlsx
@@ -15,14 +15,13 @@
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
     <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
     <sheet name="保險" sheetId="8" r:id="rId8"/>
-    <sheet name="債務" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -333,30 +332,33 @@
     <t>otherbonds</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>中泰人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>南山伴我一生變額壽險</t>
   </si>
   <si>
-    <t>中泰人壽</t>
-  </si>
-  <si>
-    <t>安聯人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>南山好吉利21年期還本養老保險</t>
   </si>
   <si>
@@ -396,25 +398,7 @@
     <t>黃◦誼</t>
   </si>
   <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -4014,80 +3998,185 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>134</v>
       </c>
@@ -4095,13 +4184,34 @@
         <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>135</v>
       </c>
@@ -4109,13 +4219,34 @@
         <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>136</v>
       </c>
@@ -4123,13 +4254,34 @@
         <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>137</v>
       </c>
@@ -4137,13 +4289,34 @@
         <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>138</v>
       </c>
@@ -4151,13 +4324,34 @@
         <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>139</v>
       </c>
@@ -4165,13 +4359,34 @@
         <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>140</v>
       </c>
@@ -4179,13 +4394,34 @@
         <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>141</v>
       </c>
@@ -4193,27 +4429,69 @@
         <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>143</v>
       </c>
@@ -4221,13 +4499,34 @@
         <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>144</v>
       </c>
@@ -4235,13 +4534,34 @@
         <v>109</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>145</v>
       </c>
@@ -4249,72 +4569,31 @@
         <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>155</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>130</v>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
